--- a/results/ALLFEATURES_BY_YEAR.xlsx
+++ b/results/ALLFEATURES_BY_YEAR.xlsx
@@ -384,13 +384,13 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>1163.558343861852</v>
+        <v>1115.192198589515</v>
       </c>
       <c r="C2">
-        <v>34.11097101904095</v>
+        <v>33.39449353695179</v>
       </c>
       <c r="D2">
-        <v>5.170201037527695</v>
+        <v>4.955288999994352</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -398,13 +398,13 @@
         <v>2016</v>
       </c>
       <c r="B3">
-        <v>492.1453768498395</v>
+        <v>465.8193664687402</v>
       </c>
       <c r="C3">
-        <v>22.18434981805506</v>
+        <v>21.58284889602714</v>
       </c>
       <c r="D3">
-        <v>2.47431184144457</v>
+        <v>2.341955098319418</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -412,13 +412,13 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>2448.989356148856</v>
+        <v>2454.969604111337</v>
       </c>
       <c r="C4">
-        <v>49.48726458543507</v>
+        <v>49.5476498343901</v>
       </c>
       <c r="D4">
-        <v>1.000906734001189</v>
+        <v>1.00335087302598</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -426,13 +426,13 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <v>1847.494268146008</v>
+        <v>1827.416830215084</v>
       </c>
       <c r="C5">
-        <v>42.98248792410704</v>
+        <v>42.74829622587413</v>
       </c>
       <c r="D5">
-        <v>1.173625642256288</v>
+        <v>1.160871396469</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -440,13 +440,13 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <v>3000.969487685225</v>
+        <v>3004.840114938119</v>
       </c>
       <c r="C6">
-        <v>54.78110520686148</v>
+        <v>54.81642194578299</v>
       </c>
       <c r="D6">
-        <v>0.9227614657553282</v>
+        <v>0.9239516363625029</v>
       </c>
     </row>
   </sheetData>
@@ -481,13 +481,13 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>1418.69422721417</v>
+        <v>1505.099261808911</v>
       </c>
       <c r="C2">
-        <v>37.66555757206005</v>
+        <v>38.79560879544115</v>
       </c>
       <c r="D2">
-        <v>6.303881884540946</v>
+        <v>6.687817423197884</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -495,13 +495,13 @@
         <v>2016</v>
       </c>
       <c r="B3">
-        <v>992.8555616091132</v>
+        <v>1016.529174610843</v>
       </c>
       <c r="C3">
-        <v>31.50961062293714</v>
+        <v>31.88305466248243</v>
       </c>
       <c r="D3">
-        <v>4.991684141499264</v>
+        <v>5.110705682156411</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -509,13 +509,13 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>1463.124496916562</v>
+        <v>1482.690546430488</v>
       </c>
       <c r="C4">
-        <v>38.25081040862484</v>
+        <v>38.50572095715764</v>
       </c>
       <c r="D4">
-        <v>0.5979818401288741</v>
+        <v>0.6059785227878198</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -523,13 +523,13 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <v>1175.707965901771</v>
+        <v>1162.61470187869</v>
       </c>
       <c r="C5">
-        <v>34.28859819096971</v>
+        <v>34.09713627093469</v>
       </c>
       <c r="D5">
-        <v>0.7468716089560524</v>
+        <v>0.7385540781992583</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -537,13 +537,13 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <v>1998.358672851434</v>
+        <v>1983.703941210413</v>
       </c>
       <c r="C6">
-        <v>44.70300518814629</v>
+        <v>44.53879142063033</v>
       </c>
       <c r="D6">
-        <v>0.6144708853696639</v>
+        <v>0.6099647343725177</v>
       </c>
     </row>
   </sheetData>
@@ -578,13 +578,13 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>2104.283851313008</v>
+        <v>2014.03388078173</v>
       </c>
       <c r="C2">
-        <v>45.87247378671667</v>
+        <v>44.87798882282639</v>
       </c>
       <c r="D2">
-        <v>9.350257860901028</v>
+        <v>8.949237582253987</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -592,13 +592,13 @@
         <v>2016</v>
       </c>
       <c r="B3">
-        <v>2006.62098388608</v>
+        <v>1602.105022537301</v>
       </c>
       <c r="C3">
-        <v>44.795323236763</v>
+        <v>40.02630413287368</v>
       </c>
       <c r="D3">
-        <v>10.08849477262365</v>
+        <v>8.054748891223232</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -606,13 +606,13 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>1662.133587242452</v>
+        <v>1965.705748943596</v>
       </c>
       <c r="C4">
-        <v>40.76927258662401</v>
+        <v>44.33628027861151</v>
       </c>
       <c r="D4">
-        <v>0.6793172441127606</v>
+        <v>0.8033877796335012</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -620,13 +620,13 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <v>1869.434986110498</v>
+        <v>1737.856715191586</v>
       </c>
       <c r="C5">
-        <v>43.23696319251039</v>
+        <v>41.68760865283095</v>
       </c>
       <c r="D5">
-        <v>1.18756354163526</v>
+        <v>1.103978095457313</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -634,13 +634,13 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <v>2143.157473436693</v>
+        <v>2073.3746820848</v>
       </c>
       <c r="C6">
-        <v>46.29424881598894</v>
+        <v>45.53432421904161</v>
       </c>
       <c r="D6">
-        <v>0.658994748080011</v>
+        <v>0.6375373920167099</v>
       </c>
     </row>
   </sheetData>
